--- a/Grille_d_evaluation.xlsx
+++ b/Grille_d_evaluation.xlsx
@@ -1,14 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1809ADD6-11A4-4010-ACDA-2AD5EB833071}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">[1]Feuil1!$B$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">[1]Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">[1]Feuil1!$C$5:$G$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">[1]Feuil1!$B$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">[1]Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">[1]Feuil1!$C$6:$G$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">[1]Feuil1!$B$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">[1]Feuil1!$C$4:$G$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">[1]Feuil1!$C$7:$G$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +33,36 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Note (5 plus positif, 1 plus négatif 
+exmple : 5=intention parfaitement comprise, 1 intention non comprise)</t>
+  </si>
+  <si>
+    <t>Total 
+de participants</t>
+  </si>
+  <si>
+    <t>Intention comprise 
+par les joueurs</t>
+  </si>
+  <si>
+    <t>Les joueurs 
+se sont amusés</t>
+  </si>
+  <si>
+    <t>Les mécaniques ont été comprises</t>
+  </si>
+  <si>
+    <t>Grille d'évaluation du Serious game</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +70,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,12 +148,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +427,2398 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Intention Comprise</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Intention Comprise</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{D8D479D4-D5E3-4AB5-8424-DDD270067037}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Intention comprise 
+par les joueurs</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCFF33"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:spPr>
+              <a:noFill/>
+            </cx:spPr>
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Les joueurs se sont amusés</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Les joueurs se sont amusés</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{4AD66EA3-2748-4FB5-9341-699C2F7648E2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Les joueurs 
+se sont amusés</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Mécaniques comprise</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Mécaniques comprise</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{D13C0031-F218-4A63-AC20-099A35C99884}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Les mécaniques ont été comprises</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="0">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="66FF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CCFF33"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="2">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="3">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataPt idx="4">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF3300"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="382">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr lIns="38100" tIns="19050" rIns="38100" bIns="19050">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Graphique 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD356816-B4F4-41DD-B92C-ADA4AC496D6D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6000750" y="395287"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Graphique 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958946D2-6A86-43BA-AF70-C453FABC6B0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5991225" y="3300412"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Graphique 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B76BB66-29AF-45DC-8FC2-47C0848E37BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6000750" y="6176962"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Feuil1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4">
+            <v>5</v>
+          </cell>
+          <cell r="D4">
+            <v>4</v>
+          </cell>
+          <cell r="E4">
+            <v>3</v>
+          </cell>
+          <cell r="F4">
+            <v>2</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Intention comprise 
+par les joueurs</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Les joueurs 
+se sont amusés</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+          <cell r="F6">
+            <v>1</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Les mécaniques ont été comprises</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+          <cell r="E7">
+            <v>1</v>
+          </cell>
+          <cell r="F7">
+            <v>1</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3083,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="K7" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>